--- a/SO SACH/1101819710/2016/TM-BCTC 16.xlsx
+++ b/SO SACH/1101819710/2016/TM-BCTC 16.xlsx
@@ -592,9 +592,6 @@
     <t>Năm 2016</t>
   </si>
   <si>
-    <t>Ngày 20 tháng 02  năm 2017</t>
-  </si>
-  <si>
     <t>Công ty TNHH Bao Bì Giấy Kim Dung Phát</t>
   </si>
   <si>
@@ -611,6 +608,9 @@
   </si>
   <si>
     <t>Phương pháp nhập trước xuất trước</t>
+  </si>
+  <si>
+    <t>Ngày 19 tháng 03  năm 2017</t>
   </si>
 </sst>
 </file>
@@ -2301,10 +2301,6 @@
       <alignment vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0" hidden="1"/>
@@ -2359,6 +2355,12 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
       <protection locked="0" hidden="1"/>
@@ -2391,10 +2393,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6285,88 +6284,89 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G204"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="E162" sqref="E162"/>
+    <sheetView tabSelected="1" topLeftCell="A170" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="50" workbookViewId="0">
+      <selection activeCell="A191" sqref="A191:G191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44" style="192" customWidth="1"/>
-    <col min="2" max="3" width="10" style="192" customWidth="1"/>
-    <col min="4" max="4" width="17" style="192" customWidth="1"/>
-    <col min="5" max="6" width="16.5703125" style="192" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" style="192" customWidth="1"/>
-    <col min="8" max="16384" width="13.5703125" style="197"/>
+    <col min="1" max="1" width="44" style="191" customWidth="1"/>
+    <col min="2" max="2" width="10" style="191" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="191" customWidth="1"/>
+    <col min="4" max="4" width="17" style="191" customWidth="1"/>
+    <col min="5" max="6" width="16.5703125" style="191" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="191" customWidth="1"/>
+    <col min="8" max="16384" width="13.5703125" style="196"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="196" t="s">
-        <v>185</v>
+      <c r="A2" s="195" t="s">
+        <v>184</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="195"/>
-      <c r="E2" s="195"/>
-      <c r="F2" s="195" t="s">
+      <c r="D2" s="194"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="194" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="195"/>
+      <c r="G2" s="194"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="210" t="s">
+      <c r="A3" s="201" t="s">
+        <v>185</v>
+      </c>
+      <c r="B3" s="200"/>
+      <c r="C3" s="200"/>
+      <c r="D3" s="200"/>
+      <c r="E3" s="205" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="205"/>
+      <c r="G3" s="205"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="195" t="s">
         <v>186</v>
       </c>
-      <c r="B3" s="209"/>
-      <c r="C3" s="209"/>
-      <c r="D3" s="209"/>
-      <c r="E3" s="204" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="204"/>
-      <c r="G3" s="204"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="196" t="s">
-        <v>187</v>
-      </c>
-      <c r="B4" s="209"/>
-      <c r="C4" s="209"/>
-      <c r="D4" s="209"/>
-      <c r="E4" s="204" t="s">
+      <c r="B4" s="200"/>
+      <c r="C4" s="200"/>
+      <c r="D4" s="200"/>
+      <c r="E4" s="205" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="204"/>
-      <c r="G4" s="204"/>
+      <c r="F4" s="205"/>
+      <c r="G4" s="205"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="196"/>
+      <c r="A5" s="195"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="194"/>
-      <c r="F5" s="194"/>
-      <c r="G5" s="194"/>
+      <c r="E5" s="193"/>
+      <c r="F5" s="193"/>
+      <c r="G5" s="193"/>
     </row>
     <row r="6" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="205" t="s">
+      <c r="A6" s="206" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="205"/>
-      <c r="C6" s="205"/>
-      <c r="D6" s="205"/>
-      <c r="E6" s="205"/>
-      <c r="F6" s="205"/>
+      <c r="B6" s="206"/>
+      <c r="C6" s="206"/>
+      <c r="D6" s="206"/>
+      <c r="E6" s="206"/>
+      <c r="F6" s="206"/>
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="206" t="s">
+      <c r="A7" s="207" t="s">
         <v>183</v>
       </c>
-      <c r="B7" s="206"/>
-      <c r="C7" s="206"/>
-      <c r="D7" s="206"/>
-      <c r="E7" s="206"/>
-      <c r="F7" s="206"/>
+      <c r="B7" s="207"/>
+      <c r="C7" s="207"/>
+      <c r="D7" s="207"/>
+      <c r="E7" s="207"/>
+      <c r="F7" s="207"/>
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -6394,7 +6394,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -6407,7 +6407,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -6419,10 +6419,10 @@
       <c r="A12" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="B12" s="198" t="s">
+      <c r="B12" s="197" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="198"/>
+      <c r="C12" s="197"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
@@ -6440,13 +6440,13 @@
       <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="207"/>
-      <c r="B14" s="208"/>
-      <c r="C14" s="208"/>
-      <c r="D14" s="208"/>
-      <c r="E14" s="208"/>
-      <c r="F14" s="208"/>
-      <c r="G14" s="208"/>
+      <c r="A14" s="208"/>
+      <c r="B14" s="209"/>
+      <c r="C14" s="209"/>
+      <c r="D14" s="209"/>
+      <c r="E14" s="209"/>
+      <c r="F14" s="209"/>
+      <c r="G14" s="209"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
@@ -6540,7 +6540,7 @@
       <c r="B22" s="9"/>
       <c r="C22" s="12"/>
       <c r="D22" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="14"/>
@@ -6927,7 +6927,7 @@
         <v>62</v>
       </c>
       <c r="B53" s="48"/>
-      <c r="C53" s="185"/>
+      <c r="C53" s="48"/>
       <c r="D53" s="48"/>
       <c r="E53" s="48"/>
       <c r="F53" s="48"/>
@@ -6949,22 +6949,32 @@
         <v>64</v>
       </c>
       <c r="B55" s="51"/>
-      <c r="C55" s="51"/>
+      <c r="C55" s="51">
+        <v>840000000</v>
+      </c>
       <c r="D55" s="51"/>
       <c r="E55" s="51"/>
       <c r="F55" s="51"/>
-      <c r="G55" s="52"/>
+      <c r="G55" s="52">
+        <f>SUM(B55:F55)</f>
+        <v>840000000</v>
+      </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="54" t="s">
         <v>65</v>
       </c>
       <c r="B56" s="51"/>
-      <c r="C56" s="186"/>
+      <c r="C56" s="55">
+        <v>840000000</v>
+      </c>
       <c r="D56" s="55"/>
       <c r="E56" s="55"/>
       <c r="F56" s="55"/>
-      <c r="G56" s="56"/>
+      <c r="G56" s="52">
+        <f>SUM(B56:F56)</f>
+        <v>840000000</v>
+      </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="54" t="s">
@@ -6975,7 +6985,10 @@
       <c r="D57" s="55"/>
       <c r="E57" s="55"/>
       <c r="F57" s="55"/>
-      <c r="G57" s="56"/>
+      <c r="G57" s="52">
+        <f t="shared" ref="G57:G71" si="0">SUM(B57:F57)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="53" t="s">
@@ -6986,18 +6999,24 @@
       <c r="D58" s="55"/>
       <c r="E58" s="55"/>
       <c r="F58" s="55"/>
-      <c r="G58" s="52"/>
+      <c r="G58" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="54" t="s">
         <v>68</v>
       </c>
       <c r="B59" s="51"/>
-      <c r="C59" s="186"/>
+      <c r="C59" s="55"/>
       <c r="D59" s="55"/>
       <c r="E59" s="55"/>
-      <c r="F59" s="186"/>
-      <c r="G59" s="52"/>
+      <c r="F59" s="185"/>
+      <c r="G59" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="57" t="s">
@@ -7008,7 +7027,10 @@
       <c r="D60" s="55"/>
       <c r="E60" s="55"/>
       <c r="F60" s="55"/>
-      <c r="G60" s="52"/>
+      <c r="G60" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="54" t="s">
@@ -7019,7 +7041,10 @@
       <c r="D61" s="55"/>
       <c r="E61" s="55"/>
       <c r="F61" s="55"/>
-      <c r="G61" s="52"/>
+      <c r="G61" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="53" t="s">
@@ -7030,7 +7055,10 @@
       <c r="D62" s="28"/>
       <c r="E62" s="51"/>
       <c r="F62" s="51"/>
-      <c r="G62" s="52"/>
+      <c r="G62" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="58" t="s">
@@ -7040,63 +7068,87 @@
       <c r="C63" s="51"/>
       <c r="D63" s="51"/>
       <c r="E63" s="51"/>
-      <c r="F63" s="187"/>
-      <c r="G63" s="52"/>
+      <c r="F63" s="186"/>
+      <c r="G63" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="53" t="s">
         <v>63</v>
       </c>
       <c r="B64" s="51"/>
-      <c r="C64" s="188"/>
+      <c r="C64" s="210"/>
       <c r="D64" s="51"/>
       <c r="E64" s="51"/>
       <c r="F64" s="51"/>
-      <c r="G64" s="52"/>
+      <c r="G64" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="53" t="s">
         <v>73</v>
       </c>
       <c r="B65" s="51"/>
-      <c r="C65" s="188"/>
+      <c r="C65" s="210">
+        <v>26500000</v>
+      </c>
       <c r="D65" s="51"/>
       <c r="E65" s="51"/>
       <c r="F65" s="51"/>
-      <c r="G65" s="52"/>
+      <c r="G65" s="52">
+        <f t="shared" si="0"/>
+        <v>26500000</v>
+      </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="53" t="s">
         <v>67</v>
       </c>
       <c r="B66" s="51"/>
-      <c r="C66" s="188"/>
+      <c r="C66" s="210"/>
       <c r="D66" s="51"/>
-      <c r="E66" s="187"/>
+      <c r="E66" s="186"/>
       <c r="F66" s="51"/>
-      <c r="G66" s="52"/>
+      <c r="G66" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="53" t="s">
         <v>74</v>
       </c>
       <c r="B67" s="51"/>
-      <c r="C67" s="188"/>
+      <c r="C67" s="210">
+        <v>26500000</v>
+      </c>
       <c r="D67" s="51"/>
       <c r="E67" s="51"/>
       <c r="F67" s="51"/>
-      <c r="G67" s="52"/>
+      <c r="G67" s="52">
+        <f t="shared" si="0"/>
+        <v>26500000</v>
+      </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="58" t="s">
         <v>75</v>
       </c>
       <c r="B68" s="51"/>
-      <c r="C68" s="51"/>
+      <c r="C68" s="51">
+        <v>813500000</v>
+      </c>
       <c r="D68" s="51"/>
       <c r="E68" s="51"/>
       <c r="F68" s="51"/>
-      <c r="G68" s="52"/>
+      <c r="G68" s="52">
+        <f t="shared" si="0"/>
+        <v>813500000</v>
+      </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="53" t="s">
@@ -7107,18 +7159,26 @@
       <c r="D69" s="51"/>
       <c r="E69" s="51"/>
       <c r="F69" s="51"/>
-      <c r="G69" s="52"/>
+      <c r="G69" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="53" t="s">
         <v>77</v>
       </c>
       <c r="B70" s="51"/>
-      <c r="C70" s="51"/>
+      <c r="C70" s="51">
+        <v>813500000</v>
+      </c>
       <c r="D70" s="51"/>
       <c r="E70" s="51"/>
       <c r="F70" s="51"/>
-      <c r="G70" s="52"/>
+      <c r="G70" s="52">
+        <f t="shared" si="0"/>
+        <v>813500000</v>
+      </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="53" t="s">
@@ -7129,13 +7189,16 @@
       <c r="D71" s="51"/>
       <c r="E71" s="51"/>
       <c r="F71" s="51"/>
-      <c r="G71" s="56"/>
+      <c r="G71" s="52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="72" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A72" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="B72" s="187"/>
+      <c r="B72" s="186"/>
       <c r="C72" s="59"/>
       <c r="D72" s="59"/>
       <c r="E72" s="59"/>
@@ -7146,7 +7209,7 @@
       <c r="A73" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="B73" s="187"/>
+      <c r="B73" s="186"/>
       <c r="C73" s="51"/>
       <c r="D73" s="51"/>
       <c r="E73" s="51"/>
@@ -7226,8 +7289,8 @@
       <c r="F80" s="73"/>
       <c r="G80" s="69"/>
     </row>
-    <row r="81" spans="1:7" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="189" t="s">
+    <row r="81" spans="1:7" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="188" t="s">
         <v>86</v>
       </c>
       <c r="B81" s="74" t="s">
@@ -7242,7 +7305,7 @@
       <c r="E81" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="F81" s="190" t="s">
+      <c r="F81" s="189" t="s">
         <v>91</v>
       </c>
       <c r="G81" s="12"/>
@@ -7461,9 +7524,9 @@
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
       <c r="D101" s="9"/>
-      <c r="E101" s="193"/>
-      <c r="F101" s="193"/>
-      <c r="G101" s="193"/>
+      <c r="E101" s="192"/>
+      <c r="F101" s="192"/>
+      <c r="G101" s="192"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="84" t="s">
@@ -7472,17 +7535,17 @@
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
       <c r="D102" s="9"/>
-      <c r="E102" s="193"/>
-      <c r="F102" s="193"/>
-      <c r="G102" s="193"/>
+      <c r="E102" s="192"/>
+      <c r="F102" s="192"/>
+      <c r="G102" s="192"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="9"/>
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
       <c r="D103" s="9"/>
-      <c r="E103" s="193"/>
-      <c r="F103" s="193"/>
+      <c r="E103" s="192"/>
+      <c r="F103" s="192"/>
       <c r="G103" s="14"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -7676,8 +7739,8 @@
       <c r="B120" s="26"/>
       <c r="C120" s="26"/>
       <c r="D120" s="26"/>
-      <c r="E120" s="187"/>
-      <c r="F120" s="187"/>
+      <c r="E120" s="186"/>
+      <c r="F120" s="186"/>
       <c r="G120" s="112"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -8027,8 +8090,8 @@
       <c r="B147" s="26"/>
       <c r="C147" s="26"/>
       <c r="D147" s="26"/>
-      <c r="E147" s="188"/>
-      <c r="F147" s="188"/>
+      <c r="E147" s="187"/>
+      <c r="F147" s="187"/>
       <c r="G147" s="12"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -8101,8 +8164,8 @@
       <c r="B153" s="157"/>
       <c r="C153" s="157"/>
       <c r="D153" s="157"/>
-      <c r="E153" s="191"/>
-      <c r="F153" s="191"/>
+      <c r="E153" s="190"/>
+      <c r="F153" s="190"/>
       <c r="G153" s="12"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -8121,7 +8184,7 @@
       <c r="G154" s="12"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="199" t="s">
+      <c r="A155" s="198" t="s">
         <v>152</v>
       </c>
       <c r="B155" s="9"/>
@@ -8132,18 +8195,18 @@
       <c r="G155" s="14"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="199" t="s">
+      <c r="A156" s="198" t="s">
         <v>153</v>
       </c>
       <c r="B156" s="9"/>
       <c r="C156" s="9"/>
       <c r="D156" s="9"/>
-      <c r="E156" s="193"/>
-      <c r="F156" s="193"/>
-      <c r="G156" s="193"/>
+      <c r="E156" s="192"/>
+      <c r="F156" s="192"/>
+      <c r="G156" s="192"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="199" t="s">
+      <c r="A157" s="198" t="s">
         <v>154</v>
       </c>
       <c r="B157" s="9"/>
@@ -8154,7 +8217,7 @@
       <c r="G157" s="14"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" s="199" t="s">
+      <c r="A158" s="198" t="s">
         <v>155</v>
       </c>
       <c r="B158" s="9"/>
@@ -8165,7 +8228,7 @@
       <c r="G158" s="159"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="200" t="s">
+      <c r="A159" s="199" t="s">
         <v>156</v>
       </c>
       <c r="B159" s="9"/>
@@ -8182,7 +8245,7 @@
       <c r="D160" s="9"/>
       <c r="E160" s="9"/>
       <c r="F160" s="9"/>
-      <c r="G160" s="193"/>
+      <c r="G160" s="192"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="143" t="s">
@@ -8286,7 +8349,7 @@
       <c r="D168" s="9"/>
       <c r="E168" s="9"/>
       <c r="F168" s="9"/>
-      <c r="G168" s="193"/>
+      <c r="G168" s="192"/>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="10" t="s">
@@ -8297,7 +8360,7 @@
       <c r="D169" s="9"/>
       <c r="E169" s="9"/>
       <c r="F169" s="9"/>
-      <c r="G169" s="193"/>
+      <c r="G169" s="192"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="9"/>
@@ -8306,7 +8369,7 @@
       <c r="D170" s="9"/>
       <c r="E170" s="9"/>
       <c r="F170" s="9"/>
-      <c r="G170" s="193"/>
+      <c r="G170" s="192"/>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="16" t="s">
@@ -8484,7 +8547,7 @@
       <c r="D186" s="9"/>
       <c r="E186" s="9"/>
       <c r="F186" s="9"/>
-      <c r="G186" s="193"/>
+      <c r="G186" s="192"/>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="9"/>
@@ -8493,7 +8556,7 @@
       <c r="D187" s="9"/>
       <c r="E187" s="9"/>
       <c r="F187" s="9"/>
-      <c r="G187" s="193"/>
+      <c r="G187" s="192"/>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="9"/>
@@ -8502,7 +8565,7 @@
       <c r="D188" s="9"/>
       <c r="E188" s="9"/>
       <c r="F188" s="9"/>
-      <c r="G188" s="193"/>
+      <c r="G188" s="192"/>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="9"/>
@@ -8511,7 +8574,7 @@
       <c r="D189" s="9"/>
       <c r="E189" s="9"/>
       <c r="F189" s="9"/>
-      <c r="G189" s="193"/>
+      <c r="G189" s="192"/>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="9"/>
@@ -8520,16 +8583,16 @@
       <c r="D190" s="9"/>
       <c r="E190" s="9"/>
       <c r="F190" s="9"/>
-      <c r="G190" s="193"/>
+      <c r="G190" s="192"/>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A191" s="201"/>
-      <c r="B191" s="202"/>
-      <c r="C191" s="202"/>
-      <c r="D191" s="202"/>
-      <c r="E191" s="202"/>
-      <c r="F191" s="202"/>
-      <c r="G191" s="202"/>
+      <c r="A191" s="202"/>
+      <c r="B191" s="203"/>
+      <c r="C191" s="203"/>
+      <c r="D191" s="203"/>
+      <c r="E191" s="203"/>
+      <c r="F191" s="203"/>
+      <c r="G191" s="203"/>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="9"/>
@@ -8537,10 +8600,10 @@
       <c r="C192" s="9"/>
       <c r="D192" s="12"/>
       <c r="E192" s="9"/>
-      <c r="F192" s="203" t="s">
-        <v>184</v>
-      </c>
-      <c r="G192" s="203"/>
+      <c r="F192" s="204" t="s">
+        <v>190</v>
+      </c>
+      <c r="G192" s="204"/>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="8"/>
@@ -8552,111 +8615,111 @@
       <c r="G193" s="8"/>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" s="193" t="s">
+      <c r="A194" s="192" t="s">
         <v>0</v>
       </c>
       <c r="B194" s="3"/>
       <c r="C194" s="9"/>
       <c r="D194" s="12"/>
       <c r="E194" s="9"/>
-      <c r="F194" s="203" t="s">
+      <c r="F194" s="204" t="s">
         <v>1</v>
       </c>
-      <c r="G194" s="203"/>
+      <c r="G194" s="204"/>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A195" s="193" t="s">
+      <c r="A195" s="192" t="s">
         <v>178</v>
       </c>
       <c r="B195" s="3"/>
       <c r="C195" s="9"/>
       <c r="D195" s="12"/>
       <c r="E195" s="9"/>
-      <c r="F195" s="203" t="s">
+      <c r="F195" s="204" t="s">
         <v>2</v>
       </c>
-      <c r="G195" s="203"/>
+      <c r="G195" s="204"/>
     </row>
     <row r="196" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A196" s="197"/>
-      <c r="B196" s="197"/>
-      <c r="C196" s="197"/>
-      <c r="D196" s="197"/>
-      <c r="E196" s="197"/>
-      <c r="F196" s="197"/>
-      <c r="G196" s="197"/>
+      <c r="A196" s="196"/>
+      <c r="B196" s="196"/>
+      <c r="C196" s="196"/>
+      <c r="D196" s="196"/>
+      <c r="E196" s="196"/>
+      <c r="F196" s="196"/>
+      <c r="G196" s="196"/>
     </row>
     <row r="197" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A197" s="197"/>
-      <c r="B197" s="197"/>
-      <c r="C197" s="197"/>
-      <c r="D197" s="197"/>
-      <c r="E197" s="197"/>
-      <c r="F197" s="197"/>
-      <c r="G197" s="197"/>
+      <c r="A197" s="196"/>
+      <c r="B197" s="196"/>
+      <c r="C197" s="196"/>
+      <c r="D197" s="196"/>
+      <c r="E197" s="196"/>
+      <c r="F197" s="196"/>
+      <c r="G197" s="196"/>
     </row>
     <row r="198" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A198" s="197"/>
-      <c r="B198" s="197"/>
-      <c r="C198" s="197"/>
-      <c r="D198" s="197"/>
-      <c r="E198" s="197"/>
-      <c r="F198" s="197"/>
-      <c r="G198" s="197"/>
+      <c r="A198" s="196"/>
+      <c r="B198" s="196"/>
+      <c r="C198" s="196"/>
+      <c r="D198" s="196"/>
+      <c r="E198" s="196"/>
+      <c r="F198" s="196"/>
+      <c r="G198" s="196"/>
     </row>
     <row r="199" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A199" s="197"/>
-      <c r="B199" s="197"/>
-      <c r="C199" s="197"/>
-      <c r="D199" s="197"/>
-      <c r="E199" s="197"/>
-      <c r="F199" s="197"/>
-      <c r="G199" s="197"/>
+      <c r="A199" s="196"/>
+      <c r="B199" s="196"/>
+      <c r="C199" s="196"/>
+      <c r="D199" s="196"/>
+      <c r="E199" s="196"/>
+      <c r="F199" s="196"/>
+      <c r="G199" s="196"/>
     </row>
     <row r="200" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A200" s="197"/>
-      <c r="B200" s="197"/>
-      <c r="C200" s="197"/>
-      <c r="D200" s="197"/>
-      <c r="E200" s="197"/>
-      <c r="F200" s="197"/>
-      <c r="G200" s="197"/>
+      <c r="A200" s="196"/>
+      <c r="B200" s="196"/>
+      <c r="C200" s="196"/>
+      <c r="D200" s="196"/>
+      <c r="E200" s="196"/>
+      <c r="F200" s="196"/>
+      <c r="G200" s="196"/>
     </row>
     <row r="201" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A201" s="197"/>
-      <c r="B201" s="197"/>
-      <c r="C201" s="197"/>
-      <c r="D201" s="197"/>
-      <c r="E201" s="197"/>
-      <c r="F201" s="197"/>
-      <c r="G201" s="197"/>
+      <c r="A201" s="196"/>
+      <c r="B201" s="196"/>
+      <c r="C201" s="196"/>
+      <c r="D201" s="196"/>
+      <c r="E201" s="196"/>
+      <c r="F201" s="196"/>
+      <c r="G201" s="196"/>
     </row>
     <row r="202" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A202" s="197"/>
-      <c r="B202" s="197"/>
-      <c r="C202" s="197"/>
-      <c r="D202" s="197"/>
-      <c r="E202" s="197"/>
-      <c r="F202" s="197"/>
-      <c r="G202" s="197"/>
+      <c r="A202" s="196"/>
+      <c r="B202" s="196"/>
+      <c r="C202" s="196"/>
+      <c r="D202" s="196"/>
+      <c r="E202" s="196"/>
+      <c r="F202" s="196"/>
+      <c r="G202" s="196"/>
     </row>
     <row r="203" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A203" s="197"/>
-      <c r="B203" s="197"/>
-      <c r="C203" s="197"/>
-      <c r="D203" s="197"/>
-      <c r="E203" s="197"/>
-      <c r="F203" s="197"/>
-      <c r="G203" s="197"/>
+      <c r="A203" s="196"/>
+      <c r="B203" s="196"/>
+      <c r="C203" s="196"/>
+      <c r="D203" s="196"/>
+      <c r="E203" s="196"/>
+      <c r="F203" s="196"/>
+      <c r="G203" s="196"/>
     </row>
     <row r="204" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A204" s="197"/>
-      <c r="B204" s="197"/>
-      <c r="C204" s="197"/>
-      <c r="D204" s="197"/>
-      <c r="E204" s="197"/>
-      <c r="F204" s="197"/>
-      <c r="G204" s="197"/>
+      <c r="A204" s="196"/>
+      <c r="B204" s="196"/>
+      <c r="C204" s="196"/>
+      <c r="D204" s="196"/>
+      <c r="E204" s="196"/>
+      <c r="F204" s="196"/>
+      <c r="G204" s="196"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -8677,4 +8740,149 @@
     <brk id="7" max="1048575" man="1"/>
   </colBreaks>
 </worksheet>
+</file>
+
+<file path=_xmlsignatures/sig-33decb64-dde7-4bae-8c47-5d126e9a0ff6.xml><?xml version="1.0" encoding="utf-8"?>
+<Signature xmlns="http://www.w3.org/2000/09/xmldsig#" Id="xmldsig-c9e2a0af-f1f7-49f5-9c5d-dd6cb6fa11a2">
+  <SignedInfo>
+    <CanonicalizationMethod Algorithm="http://www.w3.org/TR/2001/REC-xml-c14n-20010315"/>
+    <SignatureMethod Algorithm="http://www.w3.org/2000/09/xmldsig#rsa-sha1"/>
+    <Reference Type="http://www.w3.org/2000/09/xmldsig#Object" URI="#idPackageObject">
+      <DigestMethod Algorithm="http://www.w3.org/2000/09/xmldsig#sha1"/>
+      <DigestValue>o31Ck9H8PPs5OX1l6EH7EUnkdko=</DigestValue>
+    </Reference>
+    <Reference Type="http://www.w3.org/2000/09/xmldsig#Object" URI="#idOfficeObject">
+      <DigestMethod Algorithm="http://www.w3.org/2000/09/xmldsig#sha1"/>
+      <DigestValue>an8IBgOHhDEj/j1CSU7epiF+tPQ=</DigestValue>
+    </Reference>
+  </SignedInfo>
+  <SignatureValue Id="xmldsig-c9e2a0af-f1f7-49f5-9c5d-dd6cb6fa11a2-signature-value">cqvPki9OVxLIeNOmMlxbB3X9L81P+lJTpDVwatyI1Ilsa0Lz4D+2Oy0c1Ibc/pMGKfSHDc14kHn8
+6s0bMPPCZ7r7mWQXyA0bsnYthNAw52Ybe3y0gM+QB8c+pctscvohzG968W42OgUrK2ocAQKEa0yF
+MTxYvljrK10kaMMHhQk=</SignatureValue>
+  <KeyInfo>
+    <KeyValue>
+      <RSAKeyValue>
+        <Modulus>qZn5gNk4NcVMY3kHHUdHjV8RRHqQcR/ZM8aqBunqULIJeJVAK3OCi8BY/FsE27CTC92jORJfnc07
+gQNAxC101DiHX2u+GL6tese2ykiiAzxqjgVN0Ys/CGps5vuqsYyNkuQdVIsM24E65o+4gCcPEOS6
+7MpCnrtKH3bhNM5yJrk=</Modulus>
+        <Exponent>AQAB</Exponent>
+      </RSAKeyValue>
+    </KeyValue>
+    <X509Data>
+      <X509Certificate>MIIEojCCA4qgAwIBAgIQVAg3YWCrUpsCA/Qu/RR1uTANBgkqhkiG9w0BAQUFADBLMQswCQYDVQQG
+EwJWTjEoMCYGA1UEChMfQ29uZyB0eSBjbyBwaGFuIGNodSBreSBzbyBWSSBOQTESMBAGA1UEAxMJ
+U21hcnRTaWduMB4XDTE2MDUxODA5Mjc0M1oXDTE3MTEyNjA4MDIzNlowgZkxHjAcBgoJkiaJk/Is
+ZAEBDA5NU1Q6MTEwMTgxOTcxMDE0MDIGA1UEAwwrQ8OUTkcgVFkgVE5ISCBCQU8gQsOMIEdJ4bqk
+WSBLSU0gRFVORyBQSMOBVDEMMAoGA1UECgwDUE1UMRQwEgYDVQQHDAvEkOG7qWMgSMOyYTEQMA4G
+A1UECAwHTE9ORyBBTjELMAkGA1UEBhMCVk4wgZ8wDQYJKoZIhvcNAQEBBQADgY0AMIGJAoGBAKmZ
++YDZODXFTGN5Bx1HR41fEUR6kHEf2TPGqgbp6lCyCXiVQCtzgovAWPxbBNuwkwvdozkSX53NO4ED
+QMQtdNQ4h19rvhi+rXrHtspIogM8ao4FTdGLPwhqbOb7qrGMjZLkHVSLDNuBOuaPuIAnDxDkuuzK
+Qp67Sh924TTOcia5AgMBAAGjggG1MIIBsTA4BggrBgEFBQcBAQQsMCowKAYIKwYBBQUHMAGGHGh0
+dHA6Ly9vY3NwLnNtYXJ0c2lnbi5jb20udm4wHQYDVR0OBBYEFOXZNihYJ7KTahlSMEzKoqM3HzMz
+MAwGA1UdEwEB/wQCMAAwHwYDVR0jBBgwFoAUZYWp+Yk3neMI+ApJNJ2u+qXucHQwbQYDVR0gBGYw
+ZDBiBgsrBgEEAYHtAwEIAzBTMCgGCCsGAQUFBwICMBweGgBDAFAAUwAgAHYAZQByAHMAaQBvAG4A
+IAAxMCcGCCsGAQUFBwIBFhtodHRwOi8vc21hcnRzaWduLmNvbS52bi9jcHMwfQYDVR0fBHYwdDBy
+oB+gHYYbaHR0cDovL2NybC5zbWFydHNpZ24uY29tLnZuok+kTTBLMRIwEAYDVQQDDAlTbWFydFNp
+Z24xKDAmBgNVBAoMH0NvbmcgdHkgY28gcGhhbiBjaHUga3kgc28gVkkgTkExCzAJBgNVBAYTAlZO
+MA4GA1UdDwEB/wQEAwIDyDApBgNVHSUEIjAgBggrBgEFBQcDAgYIKwYBBQUHAwQGCisGAQQBgjcK
+AwwwDQYJKoZIhvcNAQEFBQADggEBANRBQUL1bEYKmgTQ0Llur+zgU3nMbLLMrmrBQbtGe9tl3YgZ
+i76H/1AOo+ek03KpfAcSdKI6sILCl9VVhI1k0F8qKx2jw9RErO7Iop4wzJBsqBWm3SNoAGb+pQU/
+7hjH2g0TFeawuR5qjxSd5N1i7VPb413LnzqSYOfyPPVf1yLficuRc5DxP4ta4H/iGTBna0fnfStt
+DSscz89SkzvOft6ZFXCIE+eGxsqanDj2QnyMfwygQ2SaosIzJfC3V6bz618N1TD70aebBUagmAsm
+g5y9POm/DUDZ46t+DeKs1PHsXbmLCpVHe/9ORCtcDxn3hd+DKX2wfgoZjRTFiXkDvxA=</X509Certificate>
+    </X509Data>
+  </KeyInfo>
+  <Object Id="idPackageObject">
+    <Manifest>
+      <Reference URI="/_rels/.rels?ContentType=application/vnd.openxmlformats-package.relationships+xml">
+        <Transforms>
+          <Transform xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" Algorithm="http://schemas.openxmlformats.org/package/2006/RelationshipTransform">
+            <mdssi:RelationshipReference SourceId="rId1"/>
+          </Transform>
+          <Transform Algorithm="http://www.w3.org/TR/2001/REC-xml-c14n-20010315"/>
+        </Transforms>
+        <DigestMethod Algorithm="http://www.w3.org/2000/09/xmldsig#sha1"/>
+        <DigestValue>+nAd0bim5u961Z6hkrztwiSj8HA=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/_rels/workbook.xml.rels?ContentType=application/vnd.openxmlformats-package.relationships+xml">
+        <Transforms>
+          <Transform xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" Algorithm="http://schemas.openxmlformats.org/package/2006/RelationshipTransform">
+            <mdssi:RelationshipReference SourceId="rId8"/>
+            <mdssi:RelationshipReference SourceId="rId3"/>
+            <mdssi:RelationshipReference SourceId="rId7"/>
+            <mdssi:RelationshipReference SourceId="rId2"/>
+            <mdssi:RelationshipReference SourceId="rId1"/>
+            <mdssi:RelationshipReference SourceId="rId6"/>
+            <mdssi:RelationshipReference SourceId="rId5"/>
+            <mdssi:RelationshipReference SourceId="rId4"/>
+          </Transform>
+          <Transform Algorithm="http://www.w3.org/TR/2001/REC-xml-c14n-20010315"/>
+        </Transforms>
+        <DigestMethod Algorithm="http://www.w3.org/2000/09/xmldsig#sha1"/>
+        <DigestValue>++2X7aVgdhT4TuuMiVFB8FqiWts=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/worksheets/_rels/sheet1.xml.rels?ContentType=application/vnd.openxmlformats-package.relationships+xml">
+        <Transforms>
+          <Transform xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" Algorithm="http://schemas.openxmlformats.org/package/2006/RelationshipTransform">
+            <mdssi:RelationshipReference SourceId="rId1"/>
+          </Transform>
+          <Transform Algorithm="http://www.w3.org/TR/2001/REC-xml-c14n-20010315"/>
+        </Transforms>
+        <DigestMethod Algorithm="http://www.w3.org/2000/09/xmldsig#sha1"/>
+        <DigestValue>x3OS0O1Zv90RqYPQ04JCQKrQR8U=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/externalLinks/_rels/externalLink3.xml.rels?ContentType=application/vnd.openxmlformats-package.relationships+xml">
+        <Transforms>
+          <Transform xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" Algorithm="http://schemas.openxmlformats.org/package/2006/RelationshipTransform">
+            <mdssi:RelationshipReference SourceId="rId1"/>
+          </Transform>
+          <Transform Algorithm="http://www.w3.org/TR/2001/REC-xml-c14n-20010315"/>
+        </Transforms>
+        <DigestMethod Algorithm="http://www.w3.org/2000/09/xmldsig#sha1"/>
+        <DigestValue>9uM10RV2xyRpadqkzA2XLWljia4=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/externalLinks/_rels/externalLink2.xml.rels?ContentType=application/vnd.openxmlformats-package.relationships+xml">
+        <Transforms>
+          <Transform xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" Algorithm="http://schemas.openxmlformats.org/package/2006/RelationshipTransform">
+            <mdssi:RelationshipReference SourceId="rId1"/>
+          </Transform>
+          <Transform Algorithm="http://www.w3.org/TR/2001/REC-xml-c14n-20010315"/>
+        </Transforms>
+        <DigestMethod Algorithm="http://www.w3.org/2000/09/xmldsig#sha1"/>
+        <DigestValue>owtqKFJa1VcwQYlkGk6VVNMmu8s=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/externalLinks/_rels/externalLink1.xml.rels?ContentType=application/vnd.openxmlformats-package.relationships+xml">
+        <Transforms>
+          <Transform xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature" Algorithm="http://schemas.openxmlformats.org/package/2006/RelationshipTransform">
+            <mdssi:RelationshipReference SourceId="rId1"/>
+          </Transform>
+          <Transform Algorithm="http://www.w3.org/TR/2001/REC-xml-c14n-20010315"/>
+        </Transforms>
+        <DigestMethod Algorithm="http://www.w3.org/2000/09/xmldsig#sha1"/>
+        <DigestValue>a28u41tAGnQJCsge2hY573F9ywc=</DigestValue>
+      </Reference>
+      <Reference URI="/xl/theme/theme1.xml?ContentType=application/vnd.openxmlformats-officedocument.theme+xml">
+        <DigestMethod Algorithm="http://www.w3.org/2000/09/xmldsig#sha1"/>
+        <DigestValue>9qmLS+LilE9mSl2hTMj5oHE8VR8=</DigestValue>
+      </Reference>
+    </Manifest>
+    <SignatureProperties Id="id-signature-time-5a14d5ee-d1f0-47a5-8eed-7f2e0616c9d9">
+      <SignatureProperty Id="idSignatureTime" Target="#xmldsig-c9e2a0af-f1f7-49f5-9c5d-dd6cb6fa11a2">
+        <mdssi:SignatureTime xmlns:mdssi="http://schemas.openxmlformats.org/package/2006/digital-signature">
+          <mdssi:Format>YYYY-MM-DDThh:mm:ssTZD</mdssi:Format>
+          <mdssi:Value>2017-03-20T01:46:13Z</mdssi:Value>
+        </mdssi:SignatureTime>
+      </SignatureProperty>
+    </SignatureProperties>
+  </Object>
+  <Object Id="idOfficeObject">
+    <SignatureProperties>
+      <SignatureProperty Id="idOfficeV1Details" Target="#xmldsig-c9e2a0af-f1f7-49f5-9c5d-dd6cb6fa11a2">
+        <SignatureInfoV1 xmlns="http://schemas.microsoft.com/office/2006/digsig">
+          <ManifestHashAlgorithm>http://www.w3.org/2000/09/xmldsig#sha1</ManifestHashAlgorithm>
+        </SignatureInfoV1>
+      </SignatureProperty>
+    </SignatureProperties>
+  </Object>
+</Signature>
 </file>